--- a/MEDCNN/AP_Chart_CNN_128_optimal_pooling.xlsx
+++ b/MEDCNN/AP_Chart_CNN_128_optimal_pooling.xlsx
@@ -24,10 +24,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mean-Pooling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Optimal Pooling after 100 iterations</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>Average</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max-Pooling</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -272,10 +272,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,21 +607,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>0.65339999999999998</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>0.38790000000000002</v>
@@ -654,10 +654,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>0.74450000000000005</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <v>0.81769999999999998</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>0.59</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>0.38890000000000002</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>0.3226</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>0.4456</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>0.62660000000000005</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>0.32669999999999999</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>0.24909999999999999</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>0.42520000000000002</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>0.26910000000000001</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>0.3805</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>0.40960000000000002</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4">
         <v>0.46500000000000002</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>0.94899999999999995</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
         <v>0.2185</v>
@@ -941,17 +941,17 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="5">
         <v>0.48159999999999997</v>
       </c>
       <c r="D20" s="5">
         <v>0.48499999999999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>3.4000000000000141E-3</v>
       </c>
